--- a/dataproject/neg_net_wealth.xlsx
+++ b/dataproject/neg_net_wealth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petra/Desktop/KU/Introduction to Programming/Intro to Prog /projects-2024-petra-maritza-noah/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66D80E-5090-2D43-B028-3E4D70DB8413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C35F89-F32C-E64B-A12E-A82983C807DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="27320" windowHeight="14080" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="27320" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LABY14" sheetId="2" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K835"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51082,7 +51082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD6FB22-A94B-624E-9FAD-1FCD8CA87FD7}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
